--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>73.512977440605</v>
+        <v>2.488197333333333</v>
       </c>
       <c r="H2">
-        <v>73.512977440605</v>
+        <v>7.464592000000001</v>
       </c>
       <c r="I2">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="J2">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N2">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q2">
-        <v>97.10157619096337</v>
+        <v>4.361506365258666</v>
       </c>
       <c r="R2">
-        <v>97.10157619096337</v>
+        <v>39.253557287328</v>
       </c>
       <c r="S2">
-        <v>0.1250442431215676</v>
+        <v>0.003971662584652349</v>
       </c>
       <c r="T2">
-        <v>0.1250442431215676</v>
+        <v>0.00397166258465235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>73.512977440605</v>
+        <v>2.488197333333333</v>
       </c>
       <c r="H3">
-        <v>73.512977440605</v>
+        <v>7.464592000000001</v>
       </c>
       <c r="I3">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="J3">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q3">
-        <v>219.5574569204037</v>
+        <v>7.654397498380445</v>
       </c>
       <c r="R3">
-        <v>219.5574569204037</v>
+        <v>68.889577485424</v>
       </c>
       <c r="S3">
-        <v>0.2827389327678397</v>
+        <v>0.006970225790458336</v>
       </c>
       <c r="T3">
-        <v>0.2827389327678397</v>
+        <v>0.006970225790458338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>73.512977440605</v>
+        <v>2.488197333333333</v>
       </c>
       <c r="H4">
-        <v>73.512977440605</v>
+        <v>7.464592000000001</v>
       </c>
       <c r="I4">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="J4">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N4">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q4">
-        <v>331.8959768493611</v>
+        <v>18.17152574549689</v>
       </c>
       <c r="R4">
-        <v>331.8959768493611</v>
+        <v>163.543731709472</v>
       </c>
       <c r="S4">
-        <v>0.4274048151247618</v>
+        <v>0.01654730335471071</v>
       </c>
       <c r="T4">
-        <v>0.4274048151247618</v>
+        <v>0.01654730335471072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>73.512977440605</v>
+        <v>2.488197333333333</v>
       </c>
       <c r="H5">
-        <v>73.512977440605</v>
+        <v>7.464592000000001</v>
       </c>
       <c r="I5">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="J5">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N5">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q5">
-        <v>38.29863626978918</v>
+        <v>1.472575728001778</v>
       </c>
       <c r="R5">
-        <v>38.29863626978918</v>
+        <v>13.253181552016</v>
       </c>
       <c r="S5">
-        <v>0.04931973478500227</v>
+        <v>0.001340952742510785</v>
       </c>
       <c r="T5">
-        <v>0.04931973478500227</v>
+        <v>0.001340952742510786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.598764035914581</v>
+        <v>73.57664233333334</v>
       </c>
       <c r="H6">
-        <v>9.598764035914581</v>
+        <v>220.729927</v>
       </c>
       <c r="I6">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432205</v>
       </c>
       <c r="J6">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N6">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q6">
-        <v>12.67878339066725</v>
+        <v>128.9708776599687</v>
       </c>
       <c r="R6">
-        <v>12.67878339066725</v>
+        <v>1160.737898939718</v>
       </c>
       <c r="S6">
-        <v>0.01632732376733378</v>
+        <v>0.1174430956680478</v>
       </c>
       <c r="T6">
-        <v>0.01632732376733378</v>
+        <v>0.1174430956680478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.598764035914581</v>
+        <v>73.57664233333334</v>
       </c>
       <c r="H7">
-        <v>9.598764035914581</v>
+        <v>220.729927</v>
       </c>
       <c r="I7">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432205</v>
       </c>
       <c r="J7">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432206</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q7">
-        <v>28.6681385338688</v>
+        <v>226.3425249560188</v>
       </c>
       <c r="R7">
-        <v>28.6681385338688</v>
+        <v>2037.082724604169</v>
       </c>
       <c r="S7">
-        <v>0.03691789387251453</v>
+        <v>0.2061113895979025</v>
       </c>
       <c r="T7">
-        <v>0.03691789387251453</v>
+        <v>0.2061113895979025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.598764035914581</v>
+        <v>73.57664233333334</v>
       </c>
       <c r="H8">
-        <v>9.598764035914581</v>
+        <v>220.729927</v>
       </c>
       <c r="I8">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432205</v>
       </c>
       <c r="J8">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432206</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N8">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q8">
-        <v>43.33644585162332</v>
+        <v>537.3367427559535</v>
       </c>
       <c r="R8">
-        <v>43.33644585162332</v>
+        <v>4836.030684803583</v>
       </c>
       <c r="S8">
-        <v>0.0558072616703759</v>
+        <v>0.4893080641958933</v>
       </c>
       <c r="T8">
-        <v>0.0558072616703759</v>
+        <v>0.4893080641958933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>73.57664233333334</v>
+      </c>
+      <c r="H9">
+        <v>220.729927</v>
+      </c>
+      <c r="I9">
+        <v>0.8525148708432205</v>
+      </c>
+      <c r="J9">
+        <v>0.8525148708432206</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5918243333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.775473</v>
+      </c>
+      <c r="O9">
+        <v>0.04651217560833507</v>
+      </c>
+      <c r="P9">
+        <v>0.04651217560833507</v>
+      </c>
+      <c r="Q9">
+        <v>43.54444729783012</v>
+      </c>
+      <c r="R9">
+        <v>391.9000256804711</v>
+      </c>
+      <c r="S9">
+        <v>0.03965232138137697</v>
+      </c>
+      <c r="T9">
+        <v>0.03965232138137697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.048962</v>
+      </c>
+      <c r="H10">
+        <v>0.146886</v>
+      </c>
+      <c r="I10">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="J10">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.752878</v>
+      </c>
+      <c r="N10">
+        <v>5.258634</v>
+      </c>
+      <c r="O10">
+        <v>0.1377607590022273</v>
+      </c>
+      <c r="P10">
+        <v>0.1377607590022273</v>
+      </c>
+      <c r="Q10">
+        <v>0.08582441263599999</v>
+      </c>
+      <c r="R10">
+        <v>0.7724197137239999</v>
+      </c>
+      <c r="S10">
+        <v>7.815318377873097E-05</v>
+      </c>
+      <c r="T10">
+        <v>7.815318377873097E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.048962</v>
+      </c>
+      <c r="H11">
+        <v>0.146886</v>
+      </c>
+      <c r="I11">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="J11">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.076282333333333</v>
+      </c>
+      <c r="N11">
+        <v>9.228847</v>
+      </c>
+      <c r="O11">
+        <v>0.2417686736584878</v>
+      </c>
+      <c r="P11">
+        <v>0.2417686736584878</v>
+      </c>
+      <c r="Q11">
+        <v>0.1506209356046667</v>
+      </c>
+      <c r="R11">
+        <v>1.355588420442</v>
+      </c>
+      <c r="S11">
+        <v>0.0001371580101708524</v>
+      </c>
+      <c r="T11">
+        <v>0.0001371580101708524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.048962</v>
+      </c>
+      <c r="H12">
+        <v>0.146886</v>
+      </c>
+      <c r="I12">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="J12">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.303088666666667</v>
+      </c>
+      <c r="N12">
+        <v>21.909266</v>
+      </c>
+      <c r="O12">
+        <v>0.5739583917309499</v>
+      </c>
+      <c r="P12">
+        <v>0.5739583917309499</v>
+      </c>
+      <c r="Q12">
+        <v>0.3575738272973333</v>
+      </c>
+      <c r="R12">
+        <v>3.218164445675999</v>
+      </c>
+      <c r="S12">
+        <v>0.0003256128667929926</v>
+      </c>
+      <c r="T12">
+        <v>0.0003256128667929926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.048962</v>
+      </c>
+      <c r="H13">
+        <v>0.146886</v>
+      </c>
+      <c r="I13">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="J13">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5918243333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.775473</v>
+      </c>
+      <c r="O13">
+        <v>0.04651217560833507</v>
+      </c>
+      <c r="P13">
+        <v>0.04651217560833507</v>
+      </c>
+      <c r="Q13">
+        <v>0.02897690300866667</v>
+      </c>
+      <c r="R13">
+        <v>0.260792127078</v>
+      </c>
+      <c r="S13">
+        <v>2.63868654223083E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.63868654223083E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.19160466666666</v>
+      </c>
+      <c r="H14">
+        <v>30.574814</v>
+      </c>
+      <c r="I14">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="J14">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.752878</v>
+      </c>
+      <c r="N14">
+        <v>5.258634</v>
+      </c>
+      <c r="O14">
+        <v>0.1377607590022273</v>
+      </c>
+      <c r="P14">
+        <v>0.1377607590022273</v>
+      </c>
+      <c r="Q14">
+        <v>17.86463960489733</v>
+      </c>
+      <c r="R14">
+        <v>160.781756444076</v>
+      </c>
+      <c r="S14">
+        <v>0.01626784756574838</v>
+      </c>
+      <c r="T14">
+        <v>0.01626784756574838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>9.598764035914581</v>
-      </c>
-      <c r="H9">
-        <v>9.598764035914581</v>
-      </c>
-      <c r="I9">
-        <v>0.1154922742008286</v>
-      </c>
-      <c r="J9">
-        <v>0.1154922742008286</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.520977895375448</v>
-      </c>
-      <c r="N9">
-        <v>0.520977895375448</v>
-      </c>
-      <c r="O9">
-        <v>0.05575952967560668</v>
-      </c>
-      <c r="P9">
-        <v>0.05575952967560668</v>
-      </c>
-      <c r="Q9">
-        <v>5.00074388563632</v>
-      </c>
-      <c r="R9">
-        <v>5.00074388563632</v>
-      </c>
-      <c r="S9">
-        <v>0.006439794890604407</v>
-      </c>
-      <c r="T9">
-        <v>0.006439794890604407</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.19160466666666</v>
+      </c>
+      <c r="H15">
+        <v>30.574814</v>
+      </c>
+      <c r="I15">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="J15">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.076282333333333</v>
+      </c>
+      <c r="N15">
+        <v>9.228847</v>
+      </c>
+      <c r="O15">
+        <v>0.2417686736584878</v>
+      </c>
+      <c r="P15">
+        <v>0.2417686736584878</v>
+      </c>
+      <c r="Q15">
+        <v>31.35225338438422</v>
+      </c>
+      <c r="R15">
+        <v>282.170280459458</v>
+      </c>
+      <c r="S15">
+        <v>0.02854990025995614</v>
+      </c>
+      <c r="T15">
+        <v>0.02854990025995615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.19160466666666</v>
+      </c>
+      <c r="H16">
+        <v>30.574814</v>
+      </c>
+      <c r="I16">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="J16">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.303088666666667</v>
+      </c>
+      <c r="N16">
+        <v>21.909266</v>
+      </c>
+      <c r="O16">
+        <v>0.5739583917309499</v>
+      </c>
+      <c r="P16">
+        <v>0.5739583917309499</v>
+      </c>
+      <c r="Q16">
+        <v>74.43019253628043</v>
+      </c>
+      <c r="R16">
+        <v>669.8717328265238</v>
+      </c>
+      <c r="S16">
+        <v>0.06777741131355285</v>
+      </c>
+      <c r="T16">
+        <v>0.06777741131355285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.19160466666666</v>
+      </c>
+      <c r="H17">
+        <v>30.574814</v>
+      </c>
+      <c r="I17">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="J17">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5918243333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.775473</v>
+      </c>
+      <c r="O17">
+        <v>0.04651217560833507</v>
+      </c>
+      <c r="P17">
+        <v>0.04651217560833507</v>
+      </c>
+      <c r="Q17">
+        <v>6.031639637446888</v>
+      </c>
+      <c r="R17">
+        <v>54.28475673702199</v>
+      </c>
+      <c r="S17">
+        <v>0.005492514619025011</v>
+      </c>
+      <c r="T17">
+        <v>0.005492514619025011</v>
       </c>
     </row>
   </sheetData>
